--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="326">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1131,6 +1131,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1152,9 +1176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,7 +1193,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,7 +1209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,24 +1246,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,21 +1255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,9 +1275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,6 +1304,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1316,85 +1400,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,25 +1436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,25 +1454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,13 +1472,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,6 +1495,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1528,39 +1587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1569,177 +1595,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2038,8 +2038,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1"/>
@@ -2205,28 +2205,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:2">
+    <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -2236,8 +2245,11 @@
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -1019,9 +1019,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1131,30 +1131,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1176,24 +1152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,9 +1170,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1230,14 +1207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1246,8 +1215,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,21 +1276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,7 +1304,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,49 +1454,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,121 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,11 +1509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1527,17 +1533,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,36 +1587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1598,148 +1598,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2039,7 +2039,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1"/>
@@ -2262,7 +2262,7 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="326">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1020,8 +1020,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1139,14 +1139,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,9 +1168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,14 +1180,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1204,6 +1195,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1231,8 +1230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,8 +1245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,15 +1269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,7 +1304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,7 +1322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,25 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,13 +1352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,7 +1382,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,19 +1442,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,73 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,13 +1498,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,26 +1546,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,25 +1595,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1619,37 +1619,37 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1658,88 +1658,88 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2038,8 +2038,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1"/>
@@ -2265,6 +2265,9 @@
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
@@ -2420,13 +2423,16 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" customHeight="1" spans="1:2">
+    <row r="35" customHeight="1" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
       <c r="A36" s="3" t="s">
@@ -2435,23 +2441,29 @@
       <c r="B36" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:2">
+    <row r="37" customHeight="1" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" customHeight="1" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="3" t="s">

--- a/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="326">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1018,10 +1018,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1132,7 +1132,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1145,16 +1198,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,16 +1244,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,54 +1268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,35 +1277,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,121 +1304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,43 +1328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,6 +1350,144 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1499,16 +1499,51 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1537,11 +1572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1554,192 +1595,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2039,7 +2039,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1"/>
@@ -2470,12 +2470,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:2">
+    <row r="39" customHeight="1" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
